--- a/scripts_registry.xlsx
+++ b/scripts_registry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAORGRE\Documents\MyProjectToolBoxApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAORGRE\Documents\MATLABScriptsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355055C7-CAC7-4611-8E6E-0087A6C6BB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B40E67E-FDB5-4DD6-9772-58CD3F293C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts Registry" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ScriptName</t>
   </si>
@@ -31,22 +31,31 @@
     <t>Path</t>
   </si>
   <si>
-    <t>Tab</t>
-  </si>
-  <si>
     <t>About</t>
   </si>
   <si>
     <t>Example</t>
   </si>
   <si>
-    <t>Path...\Example.m</t>
-  </si>
-  <si>
-    <t>All Scripts</t>
-  </si>
-  <si>
     <t>דוגמא. החליפו דוגמא זו בסקריפט משלכם.</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>זה האפליקציה הנוכחית!</t>
+  </si>
+  <si>
+    <t>Project Toolbox</t>
+  </si>
+  <si>
+    <t>ChangeThisPath…\Project Toolbox</t>
+  </si>
+  <si>
+    <t>ChangeThisPath...\Example.m</t>
   </si>
 </sst>
 </file>
@@ -409,7 +418,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,31 +437,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
